--- a/TechInf/Zeszyt1.xlsx
+++ b/TechInf/Zeszyt1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12330" firstSheet="3" activeTab="11"/>
+    <workbookView windowWidth="28800" windowHeight="12375" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -4895,7 +4895,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -4965,19 +4965,19 @@
       </c>
       <c r="D5" s="2">
         <f ca="1">ROUND(RAND()*1900+1233,-1)</f>
-        <v>2900</v>
+        <v>2920</v>
       </c>
       <c r="E5" s="2">
         <f ca="1">0.15*$D5</f>
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">RAND()*1500+1500</f>
-        <v>2325.92711653545</v>
+        <v>2441.32751738568</v>
       </c>
       <c r="G5" s="2">
         <f ca="1">$D5+$E5-$F5</f>
-        <v>1009.07288346455</v>
+        <v>916.672482614318</v>
       </c>
     </row>
     <row r="6" spans="3:7">
@@ -4986,19 +4986,19 @@
       </c>
       <c r="D6" s="2">
         <f ca="1">ROUND(RAND()*1900+1233,-1)</f>
-        <v>1660</v>
+        <v>2210</v>
       </c>
       <c r="E6" s="2">
         <f ca="1">0.15*$D6</f>
-        <v>249</v>
+        <v>331.5</v>
       </c>
       <c r="F6" s="2">
         <f ca="1">RAND()*1500+1500</f>
-        <v>2107.72171575921</v>
+        <v>2067.0350294489</v>
       </c>
       <c r="G6" s="2">
         <f ca="1">$D6+$E6-$F6</f>
-        <v>-198.721715759214</v>
+        <v>474.464970551102</v>
       </c>
     </row>
     <row r="7" spans="3:7">
@@ -5007,19 +5007,19 @@
       </c>
       <c r="D7" s="2">
         <f ca="1">ROUND(RAND()*1900+1233,-1)</f>
-        <v>2310</v>
+        <v>1640</v>
       </c>
       <c r="E7" s="2">
         <f ca="1">0.15*$D7</f>
-        <v>346.5</v>
+        <v>246</v>
       </c>
       <c r="F7" s="2">
         <f ca="1">RAND()*1500+1500</f>
-        <v>2302.58472380741</v>
+        <v>2925.6497188128</v>
       </c>
       <c r="G7" s="2">
         <f ca="1">$D7+$E7-$F7</f>
-        <v>353.915276192593</v>
+        <v>-1039.6497188128</v>
       </c>
     </row>
     <row r="8" spans="3:7">
@@ -5028,19 +5028,19 @@
       </c>
       <c r="D8" s="2">
         <f ca="1">ROUND(RAND()*1900+1233,-1)</f>
-        <v>2920</v>
+        <v>2650</v>
       </c>
       <c r="E8" s="2">
         <f ca="1">0.15*$D8</f>
-        <v>438</v>
+        <v>397.5</v>
       </c>
       <c r="F8" s="2">
         <f ca="1">RAND()*1500+1500</f>
-        <v>2796.45971602481</v>
+        <v>2143.72298663242</v>
       </c>
       <c r="G8" s="2">
         <f ca="1">$D8+$E8-$F8</f>
-        <v>561.540283975195</v>
+        <v>903.777013367582</v>
       </c>
     </row>
     <row r="9" spans="3:7">
@@ -5049,19 +5049,19 @@
       </c>
       <c r="D9" s="2">
         <f ca="1">ROUND(RAND()*1900+1233,-1)</f>
-        <v>2410</v>
+        <v>1950</v>
       </c>
       <c r="E9" s="2">
         <f ca="1">0.15*$D9</f>
-        <v>361.5</v>
+        <v>292.5</v>
       </c>
       <c r="F9" s="2">
         <f ca="1">RAND()*1500+1500</f>
-        <v>2386.10503155768</v>
+        <v>2020.82609149959</v>
       </c>
       <c r="G9" s="2">
         <f ca="1">$D9+$E9-$F9</f>
-        <v>385.394968442317</v>
+        <v>221.673908500409</v>
       </c>
     </row>
     <row r="10" spans="3:7">
@@ -5070,19 +5070,19 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">ROUND(RAND()*1900+1233,-1)</f>
-        <v>2180</v>
+        <v>2930</v>
       </c>
       <c r="E10" s="2">
         <f ca="1">0.15*$D10</f>
-        <v>327</v>
+        <v>439.5</v>
       </c>
       <c r="F10" s="2">
         <f ca="1">RAND()*1500+1500</f>
-        <v>2875.15520353767</v>
+        <v>2289.7523819331</v>
       </c>
       <c r="G10" s="2">
         <f ca="1">$D10+$E10-$F10</f>
-        <v>-368.155203537674</v>
+        <v>1079.7476180669</v>
       </c>
     </row>
     <row r="11" spans="3:7">
@@ -5091,19 +5091,19 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">ROUND(RAND()*1900+1233,-1)</f>
-        <v>2290</v>
+        <v>2360</v>
       </c>
       <c r="E11" s="2">
         <f ca="1">0.15*$D11</f>
-        <v>343.5</v>
+        <v>354</v>
       </c>
       <c r="F11" s="2">
         <f ca="1">RAND()*1500+1500</f>
-        <v>1825.42589632157</v>
+        <v>2140.089709312</v>
       </c>
       <c r="G11" s="2">
         <f ca="1">$D11+$E11-$F11</f>
-        <v>808.074103678431</v>
+        <v>573.910290687999</v>
       </c>
     </row>
     <row r="12" spans="3:7">
@@ -5112,19 +5112,19 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">ROUND(RAND()*1900+1233,-1)</f>
-        <v>2410</v>
+        <v>2430</v>
       </c>
       <c r="E12" s="2">
         <f ca="1">0.15*$D12</f>
-        <v>361.5</v>
+        <v>364.5</v>
       </c>
       <c r="F12" s="2">
         <f ca="1">RAND()*1500+1500</f>
-        <v>2324.32462587753</v>
+        <v>1847.19137861359</v>
       </c>
       <c r="G12" s="2">
         <f ca="1">$D12+$E12-$F12</f>
-        <v>447.175374122473</v>
+        <v>947.308621386412</v>
       </c>
     </row>
     <row r="13" spans="3:7">
@@ -5133,19 +5133,19 @@
       </c>
       <c r="D13" s="2">
         <f ca="1">ROUND(RAND()*1900+1233,-1)</f>
-        <v>1840</v>
+        <v>2480</v>
       </c>
       <c r="E13" s="2">
         <f ca="1">0.15*$D13</f>
-        <v>276</v>
+        <v>372</v>
       </c>
       <c r="F13" s="2">
         <f ca="1">RAND()*1500+1500</f>
-        <v>2514.84060982417</v>
+        <v>2954.73907862477</v>
       </c>
       <c r="G13" s="2">
         <f ca="1">$D13+$E13-$F13</f>
-        <v>-398.840609824174</v>
+        <v>-102.73907862477</v>
       </c>
     </row>
     <row r="14" spans="3:7">
@@ -5154,19 +5154,19 @@
       </c>
       <c r="D14" s="2">
         <f ca="1">ROUND(RAND()*1900+1233,-1)</f>
-        <v>1600</v>
+        <v>2510</v>
       </c>
       <c r="E14" s="2">
         <f ca="1">0.15*$D14</f>
-        <v>240</v>
+        <v>376.5</v>
       </c>
       <c r="F14" s="2">
         <f ca="1">RAND()*1500+1500</f>
-        <v>2719.88550747192</v>
+        <v>2066.01038146975</v>
       </c>
       <c r="G14" s="2">
         <f ca="1">$D14+$E14-$F14</f>
-        <v>-879.885507471916</v>
+        <v>820.489618530245</v>
       </c>
     </row>
     <row r="15" spans="3:7">
@@ -5175,19 +5175,19 @@
       </c>
       <c r="D15" s="2">
         <f ca="1">ROUND(RAND()*1900+1233,-1)</f>
-        <v>2410</v>
+        <v>1850</v>
       </c>
       <c r="E15" s="2">
         <f ca="1">0.15*$D15</f>
-        <v>361.5</v>
+        <v>277.5</v>
       </c>
       <c r="F15" s="2">
         <f ca="1">RAND()*1500+1500</f>
-        <v>1574.23340377385</v>
+        <v>1710.63910673225</v>
       </c>
       <c r="G15" s="2">
         <f ca="1">$D15+$E15-$F15</f>
-        <v>1197.26659622615</v>
+        <v>416.860893267753</v>
       </c>
     </row>
     <row r="16" spans="3:7">
@@ -5196,19 +5196,19 @@
       </c>
       <c r="D16" s="2">
         <f ca="1">ROUND(RAND()*1900+1233,-1)</f>
-        <v>2520</v>
+        <v>2790</v>
       </c>
       <c r="E16" s="2">
         <f ca="1">0.15*$D16</f>
-        <v>378</v>
+        <v>418.5</v>
       </c>
       <c r="F16" s="2">
         <f ca="1">RAND()*1500+1500</f>
-        <v>2155.93263426865</v>
+        <v>2580.68620123807</v>
       </c>
       <c r="G16" s="2">
         <f ca="1">$D16+$E16-$F16</f>
-        <v>742.067365731353</v>
+        <v>627.813798761934</v>
       </c>
     </row>
     <row r="17" spans="3:7">
@@ -5217,19 +5217,19 @@
       </c>
       <c r="D17" s="2">
         <f ca="1">ROUND(RAND()*1900+1233,-1)</f>
-        <v>2960</v>
+        <v>1830</v>
       </c>
       <c r="E17" s="2">
         <f ca="1">0.15*$D17</f>
-        <v>444</v>
+        <v>274.5</v>
       </c>
       <c r="F17" s="2">
         <f ca="1">RAND()*1500+1500</f>
-        <v>2952.7281432625</v>
+        <v>1819.79322758213</v>
       </c>
       <c r="G17" s="2">
         <f ca="1">$D17+$E17-$F17</f>
-        <v>451.271856737503</v>
+        <v>284.706772417871</v>
       </c>
     </row>
     <row r="18" spans="3:7">
@@ -5238,19 +5238,19 @@
       </c>
       <c r="D18" s="2">
         <f ca="1">ROUND(RAND()*1900+1233,-1)</f>
-        <v>2720</v>
+        <v>2530</v>
       </c>
       <c r="E18" s="2">
         <f ca="1">0.15*$D18</f>
-        <v>408</v>
+        <v>379.5</v>
       </c>
       <c r="F18" s="2">
         <f ca="1">RAND()*1500+1500</f>
-        <v>2607.69597949368</v>
+        <v>2328.7619155739</v>
       </c>
       <c r="G18" s="2">
         <f ca="1">$D18+$E18-$F18</f>
-        <v>520.304020506317</v>
+        <v>580.738084426099</v>
       </c>
     </row>
     <row r="19" spans="3:7">
@@ -5259,19 +5259,19 @@
       </c>
       <c r="D19" s="2">
         <f ca="1">ROUND(RAND()*1900+1233,-1)</f>
-        <v>2530</v>
+        <v>1360</v>
       </c>
       <c r="E19" s="2">
         <f ca="1">0.15*$D19</f>
-        <v>379.5</v>
+        <v>204</v>
       </c>
       <c r="F19" s="2">
         <f ca="1">RAND()*1500+1500</f>
-        <v>2285.37781424363</v>
+        <v>1790.173672385</v>
       </c>
       <c r="G19" s="2">
         <f ca="1">$D19+$E19-$F19</f>
-        <v>624.122185756365</v>
+        <v>-226.173672384997</v>
       </c>
     </row>
     <row r="20" spans="3:7">
@@ -5280,19 +5280,19 @@
       </c>
       <c r="D20" s="2">
         <f ca="1">ROUND(RAND()*1900+1233,-1)</f>
-        <v>1480</v>
+        <v>2700</v>
       </c>
       <c r="E20" s="2">
         <f ca="1">0.15*$D20</f>
-        <v>222</v>
+        <v>405</v>
       </c>
       <c r="F20" s="2">
         <f ca="1">RAND()*1500+1500</f>
-        <v>1699.82689205108</v>
+        <v>2726.35785959026</v>
       </c>
       <c r="G20" s="2">
         <f ca="1">$D20+$E20-$F20</f>
-        <v>2.17310794892069</v>
+        <v>378.642140409743</v>
       </c>
     </row>
     <row r="21" spans="3:7">
@@ -5301,19 +5301,19 @@
       </c>
       <c r="D21" s="2">
         <f ca="1">ROUND(RAND()*1900+1233,-1)</f>
-        <v>2500</v>
+        <v>2620</v>
       </c>
       <c r="E21" s="2">
         <f ca="1">0.15*$D21</f>
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="F21" s="2">
         <f ca="1">RAND()*1500+1500</f>
-        <v>2675.62587844414</v>
+        <v>1859.04877458475</v>
       </c>
       <c r="G21" s="2">
         <f ca="1">$D21+$E21-$F21</f>
-        <v>199.374121555864</v>
+        <v>1153.95122541525</v>
       </c>
     </row>
     <row r="22" spans="3:7">
@@ -5322,19 +5322,19 @@
       </c>
       <c r="D22" s="2">
         <f ca="1">ROUND(RAND()*1900+1233,-1)</f>
-        <v>2800</v>
+        <v>2480</v>
       </c>
       <c r="E22" s="2">
         <f ca="1">0.15*$D22</f>
-        <v>420</v>
+        <v>372</v>
       </c>
       <c r="F22" s="2">
         <f ca="1">RAND()*1500+1500</f>
-        <v>2398.92901444972</v>
+        <v>2010.62201043348</v>
       </c>
       <c r="G22" s="2">
         <f ca="1">$D22+$E22-$F22</f>
-        <v>821.070985550285</v>
+        <v>841.377989566522</v>
       </c>
     </row>
     <row r="23" spans="4:7">
@@ -5343,7 +5343,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2">
         <f ca="1">SUM(G5:G22)</f>
-        <v>6277.22009329534</v>
+        <v>8853.57295814757</v>
       </c>
     </row>
     <row r="24" spans="4:7">
